--- a/ege库与display单元库对比.xlsx
+++ b/ege库与display单元库对比.xlsx
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2275,18 +2275,18 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C59" t="s">
@@ -2297,10 +2297,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2313,10 +2313,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C62" t="s">
@@ -2327,42 +2327,42 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C67" t="s">
@@ -2373,26 +2373,26 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>214</v>
       </c>
     </row>

--- a/ege库与display单元库对比.xlsx
+++ b/ege库与display单元库对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="503">
   <si>
     <t>cleardevice</t>
   </si>
@@ -1153,9 +1153,6 @@
     <t>设置点</t>
   </si>
   <si>
-    <t>画矩形</t>
-  </si>
-  <si>
     <t>画椭圆</t>
   </si>
   <si>
@@ -1387,9 +1384,6 @@
     <t>使用对话框让用户输入一个字符串</t>
   </si>
   <si>
-    <t>快速？</t>
-  </si>
-  <si>
     <t>GetBlue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1403,13 +1397,181 @@
   </si>
   <si>
     <t>GetAlpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetBBPixel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画点到缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSV2RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSL2RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI2RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSN2RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB2HSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb2hsv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB2HSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB2HSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB2HSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮度转RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明度转RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强度转RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度转RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB转亮度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB转明度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB转强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB转长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double2long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点转整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long2double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型转浮点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画弧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chord</t>
+  </si>
+  <si>
+    <t>Pie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画椭圆切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetBrushColor</t>
+  </si>
+  <si>
+    <t>SetPenColor</t>
+  </si>
+  <si>
+    <t>SetPenWidth</t>
+  </si>
+  <si>
+    <t>设置画刷颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置画笔颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置画笔宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存位图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1426,18 +1588,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1452,9 +1608,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,7 +1629,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1760,1814 +1915,1945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:B70"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="34" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="34" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C159" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C160" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C161" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C162" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>178</v>
-      </c>
-      <c r="B52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>217</v>
-      </c>
-      <c r="B72" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>226</v>
-      </c>
-      <c r="B73" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>243</v>
-      </c>
-      <c r="B74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C74" t="s">
-        <v>84</v>
-      </c>
-      <c r="D74" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C75" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>234</v>
-      </c>
-      <c r="B76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>236</v>
-      </c>
-      <c r="B77" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>237</v>
-      </c>
-      <c r="B78" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>238</v>
-      </c>
-      <c r="B79" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>240</v>
-      </c>
-      <c r="B80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>230</v>
-      </c>
-      <c r="B81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>232</v>
-      </c>
-      <c r="B82" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>224</v>
-      </c>
-      <c r="B86" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>191</v>
-      </c>
-      <c r="B87" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>252</v>
-      </c>
-      <c r="B88" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>254</v>
-      </c>
-      <c r="B89" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>256</v>
-      </c>
-      <c r="B90" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>258</v>
-      </c>
-      <c r="B91" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>260</v>
-      </c>
-      <c r="B94" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>270</v>
-      </c>
-      <c r="B95" t="s">
-        <v>271</v>
-      </c>
-      <c r="C95" t="s">
-        <v>66</v>
-      </c>
-      <c r="D95" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>276</v>
-      </c>
-      <c r="B96" t="s">
-        <v>277</v>
-      </c>
-      <c r="C96" t="s">
-        <v>67</v>
-      </c>
-      <c r="D96" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>274</v>
-      </c>
-      <c r="B97" t="s">
-        <v>275</v>
-      </c>
-      <c r="C97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C99" t="s">
-        <v>70</v>
-      </c>
-      <c r="D99" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C100" t="s">
-        <v>71</v>
-      </c>
-      <c r="D100" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C101" t="s">
-        <v>72</v>
-      </c>
-      <c r="D101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C102" t="s">
-        <v>73</v>
-      </c>
-      <c r="D102" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C103" t="s">
-        <v>74</v>
-      </c>
-      <c r="D103" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C104" t="s">
-        <v>75</v>
-      </c>
-      <c r="D104" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C105" t="s">
-        <v>76</v>
-      </c>
-      <c r="D105" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C106" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C107" t="s">
-        <v>78</v>
-      </c>
-      <c r="D107" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>262</v>
-      </c>
-      <c r="B108" t="s">
-        <v>263</v>
-      </c>
-      <c r="C108" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>264</v>
-      </c>
-      <c r="B109" t="s">
-        <v>265</v>
-      </c>
-      <c r="C109" t="s">
-        <v>80</v>
-      </c>
-      <c r="D109" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>266</v>
-      </c>
-      <c r="B110" t="s">
-        <v>267</v>
-      </c>
-      <c r="C110" t="s">
-        <v>81</v>
-      </c>
-      <c r="D110" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>268</v>
-      </c>
-      <c r="B111" t="s">
-        <v>269</v>
-      </c>
-      <c r="C111" t="s">
-        <v>82</v>
-      </c>
-      <c r="D111" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>278</v>
-      </c>
-      <c r="B112" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C114" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
-        <v>280</v>
-      </c>
-      <c r="B115" t="s">
-        <v>281</v>
-      </c>
-      <c r="C115" t="s">
-        <v>91</v>
-      </c>
-      <c r="D115" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C116" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
-        <v>284</v>
-      </c>
-      <c r="B117" t="s">
-        <v>285</v>
-      </c>
-      <c r="C117" t="s">
-        <v>93</v>
-      </c>
-      <c r="D117" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
-        <v>286</v>
-      </c>
-      <c r="B118" t="s">
-        <v>287</v>
-      </c>
-      <c r="C118" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>288</v>
-      </c>
-      <c r="B119" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>290</v>
-      </c>
-      <c r="B120" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>282</v>
-      </c>
-      <c r="B121" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C123" t="s">
-        <v>95</v>
-      </c>
-      <c r="D123" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C124" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C125" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C126" t="s">
-        <v>98</v>
-      </c>
-      <c r="D126" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C127" t="s">
-        <v>99</v>
-      </c>
-      <c r="D127" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C128" t="s">
-        <v>100</v>
-      </c>
-      <c r="D128" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C129" t="s">
-        <v>101</v>
-      </c>
-      <c r="D129" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C130" t="s">
-        <v>102</v>
-      </c>
-      <c r="D130" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C131" t="s">
-        <v>103</v>
-      </c>
-      <c r="D131" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C132" t="s">
-        <v>104</v>
-      </c>
-      <c r="D132" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C133" t="s">
-        <v>105</v>
-      </c>
-      <c r="D133" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>292</v>
-      </c>
-      <c r="B136" t="s">
-        <v>293</v>
-      </c>
-      <c r="C136" t="s">
-        <v>106</v>
-      </c>
-      <c r="D136" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>294</v>
-      </c>
-      <c r="B137" t="s">
-        <v>295</v>
-      </c>
-      <c r="C137" t="s">
-        <v>107</v>
-      </c>
-      <c r="D137" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>296</v>
-      </c>
-      <c r="B138" t="s">
-        <v>297</v>
-      </c>
-      <c r="C138" t="s">
-        <v>108</v>
-      </c>
-      <c r="D138" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>298</v>
-      </c>
-      <c r="B139" t="s">
-        <v>299</v>
-      </c>
-      <c r="C139" t="s">
-        <v>109</v>
-      </c>
-      <c r="D139" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>300</v>
-      </c>
-      <c r="B140" t="s">
-        <v>301</v>
-      </c>
-      <c r="C140" t="s">
-        <v>110</v>
-      </c>
-      <c r="D140" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>302</v>
-      </c>
-      <c r="B141" t="s">
-        <v>303</v>
-      </c>
-      <c r="C141" t="s">
-        <v>111</v>
-      </c>
-      <c r="D141" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>304</v>
-      </c>
-      <c r="B142" t="s">
-        <v>305</v>
-      </c>
-      <c r="C142" t="s">
-        <v>112</v>
-      </c>
-      <c r="D142" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>306</v>
-      </c>
-      <c r="B143" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" t="s">
-        <v>113</v>
-      </c>
-      <c r="D143" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>308</v>
-      </c>
-      <c r="B144" t="s">
-        <v>309</v>
-      </c>
-      <c r="C144" t="s">
-        <v>114</v>
-      </c>
-      <c r="D144" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>310</v>
-      </c>
-      <c r="B145" t="s">
-        <v>311</v>
-      </c>
-      <c r="C145" t="s">
-        <v>115</v>
-      </c>
-      <c r="D145" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
-        <v>312</v>
-      </c>
-      <c r="B146" t="s">
-        <v>313</v>
-      </c>
-      <c r="C146" t="s">
-        <v>116</v>
-      </c>
-      <c r="D146" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>314</v>
-      </c>
-      <c r="B147" t="s">
-        <v>315</v>
-      </c>
-      <c r="C147" t="s">
-        <v>117</v>
-      </c>
-      <c r="D147" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C148" t="s">
-        <v>118</v>
-      </c>
-      <c r="D148" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C149" t="s">
-        <v>119</v>
-      </c>
-      <c r="D149" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C150" t="s">
-        <v>120</v>
-      </c>
-      <c r="D150" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C151" t="s">
-        <v>121</v>
-      </c>
-      <c r="D151" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C152" t="s">
-        <v>122</v>
-      </c>
-      <c r="D152" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C153" t="s">
-        <v>123</v>
-      </c>
-      <c r="D153" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C154" t="s">
-        <v>124</v>
-      </c>
-      <c r="D154" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C155" t="s">
-        <v>125</v>
-      </c>
-      <c r="D155" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C156" t="s">
-        <v>126</v>
-      </c>
-      <c r="D156" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C157" t="s">
-        <v>127</v>
-      </c>
-      <c r="D157" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C158" t="s">
-        <v>128</v>
-      </c>
-      <c r="D158" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C159" t="s">
-        <v>129</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="B167" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C175" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C179" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C161" t="s">
-        <v>32</v>
-      </c>
-      <c r="D161" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C162" t="s">
-        <v>33</v>
-      </c>
-      <c r="D162" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C163" t="s">
-        <v>34</v>
-      </c>
-      <c r="D163" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" t="s">
-        <v>316</v>
-      </c>
-      <c r="B164" t="s">
-        <v>317</v>
-      </c>
-      <c r="C164" t="s">
-        <v>35</v>
-      </c>
-      <c r="D164" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" t="s">
-        <v>318</v>
-      </c>
-      <c r="B165" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
-        <v>320</v>
-      </c>
-      <c r="B166" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C170" t="s">
-        <v>36</v>
-      </c>
-      <c r="D170" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
-        <v>451</v>
-      </c>
-      <c r="B171" t="s">
-        <v>452</v>
-      </c>
-      <c r="C171" t="s">
-        <v>37</v>
-      </c>
-      <c r="D171" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C172" t="s">
-        <v>38</v>
-      </c>
-      <c r="D172" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C173" t="s">
-        <v>39</v>
-      </c>
-      <c r="D173" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C174" t="s">
-        <v>40</v>
-      </c>
-      <c r="D174" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C176" t="s">
-        <v>130</v>
-      </c>
-      <c r="D176" t="s">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C177" t="s">
-        <v>131</v>
-      </c>
-      <c r="D177" t="s">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C183" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C178" t="s">
-        <v>132</v>
-      </c>
-      <c r="D178" t="s">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C179" t="s">
-        <v>133</v>
-      </c>
-      <c r="D179" t="s">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C180" t="s">
-        <v>134</v>
-      </c>
-      <c r="D180" t="s">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C186" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C181" t="s">
-        <v>135</v>
-      </c>
-      <c r="D181" t="s">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C182" t="s">
-        <v>136</v>
-      </c>
-      <c r="D182" t="s">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C183" t="s">
-        <v>137</v>
-      </c>
-      <c r="D183" t="s">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C189" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C184" t="s">
-        <v>138</v>
-      </c>
-      <c r="D184" t="s">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C185" t="s">
-        <v>139</v>
-      </c>
-      <c r="D185" t="s">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C192" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C187" t="s">
-        <v>140</v>
-      </c>
-      <c r="D187" t="s">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C193" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C188" t="s">
-        <v>141</v>
-      </c>
-      <c r="D188" t="s">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C194" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C189" t="s">
-        <v>142</v>
-      </c>
-      <c r="D189" t="s">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C195" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C190" t="s">
-        <v>143</v>
-      </c>
-      <c r="D190" t="s">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C191" t="s">
-        <v>144</v>
-      </c>
-      <c r="D191" t="s">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C197" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C192" t="s">
-        <v>145</v>
-      </c>
-      <c r="D192" t="s">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C198" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C193" t="s">
-        <v>146</v>
-      </c>
-      <c r="D193" t="s">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C199" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C194" t="s">
-        <v>147</v>
-      </c>
-      <c r="D194" t="s">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C200" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C195" t="s">
-        <v>148</v>
-      </c>
-      <c r="D195" t="s">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C201" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C196" t="s">
-        <v>149</v>
-      </c>
-      <c r="D196" t="s">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C202" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C197" t="s">
-        <v>150</v>
-      </c>
-      <c r="D197" t="s">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C203" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C198" t="s">
-        <v>151</v>
-      </c>
-      <c r="D198" t="s">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C204" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C199" t="s">
-        <v>152</v>
-      </c>
-      <c r="D199" t="s">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C205" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C200" t="s">
-        <v>153</v>
-      </c>
-      <c r="D200" t="s">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C206" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C201" t="s">
-        <v>154</v>
-      </c>
-      <c r="D201" t="s">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C207" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C202" t="s">
-        <v>155</v>
-      </c>
-      <c r="D202" t="s">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C203" t="s">
-        <v>156</v>
-      </c>
-      <c r="D203" t="s">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C204" t="s">
-        <v>157</v>
-      </c>
-      <c r="D204" t="s">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C205" t="s">
-        <v>158</v>
-      </c>
-      <c r="D205" t="s">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C211" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C206" t="s">
-        <v>159</v>
-      </c>
-      <c r="D206" t="s">
-        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/ege库与display单元库对比.xlsx
+++ b/ege库与display单元库对比.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="函数对比" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="590">
   <si>
     <t>cleardevice</t>
   </si>
@@ -166,9 +167,6 @@
     <t>GetHeight</t>
   </si>
   <si>
-    <t>GetSize</t>
-  </si>
-  <si>
     <t>GetPosX</t>
   </si>
   <si>
@@ -211,9 +209,6 @@
     <t>GetScrHeight</t>
   </si>
   <si>
-    <t>GetScrSize</t>
-  </si>
-  <si>
     <t>SetFont</t>
   </si>
   <si>
@@ -301,18 +296,12 @@
     <t>ReleaseBMP</t>
   </si>
   <si>
-    <t>PreesKey</t>
-  </si>
-  <si>
     <t>DownKey</t>
   </si>
   <si>
     <t>UpKey</t>
   </si>
   <si>
-    <t>PreesMouse</t>
-  </si>
-  <si>
     <t>DownMouse</t>
   </si>
   <si>
@@ -397,15 +386,6 @@
     <t>GetDropFile</t>
   </si>
   <si>
-    <t>GetMouseAbsX|Y</t>
-  </si>
-  <si>
-    <t>GetMouseWinX|Y</t>
-  </si>
-  <si>
-    <t>GetMousePosX|Y</t>
-  </si>
-  <si>
     <t>LoadAudio</t>
   </si>
   <si>
@@ -1048,9 +1028,6 @@
     <t>获取窗口高度</t>
   </si>
   <si>
-    <t>获取窗口大小</t>
-  </si>
-  <si>
     <t>获取窗口横坐标</t>
   </si>
   <si>
@@ -1093,9 +1070,6 @@
     <t>获取屏幕高度</t>
   </si>
   <si>
-    <t>获取屏幕大小</t>
-  </si>
-  <si>
     <t>将字体选入位图</t>
   </si>
   <si>
@@ -1237,334 +1211,652 @@
     <t>判断鼠标按键</t>
   </si>
   <si>
+    <t>等待鼠标按键</t>
+  </si>
+  <si>
+    <t>判断鼠标滚轮按键</t>
+  </si>
+  <si>
+    <t>等待鼠标滚轮按键</t>
+  </si>
+  <si>
+    <t>判断鼠标移动</t>
+  </si>
+  <si>
+    <t>获取鼠标移动</t>
+  </si>
+  <si>
+    <t>等待鼠标移动</t>
+  </si>
+  <si>
+    <t>判断拖拽文件</t>
+  </si>
+  <si>
+    <t>等待拖拽文件</t>
+  </si>
+  <si>
+    <t>获取拖拽文件</t>
+  </si>
+  <si>
+    <t>获取鼠标绝对位置</t>
+  </si>
+  <si>
+    <t>获取鼠标窗口位置</t>
+  </si>
+  <si>
+    <t>获取鼠标绘图位置</t>
+  </si>
+  <si>
+    <t>读取音频</t>
+  </si>
+  <si>
+    <t>开始播放</t>
+  </si>
+  <si>
+    <t>停止播放</t>
+  </si>
+  <si>
+    <t>暂停播放</t>
+  </si>
+  <si>
+    <t>继续播放</t>
+  </si>
+  <si>
+    <t>获取音量</t>
+  </si>
+  <si>
+    <t>设置音量</t>
+  </si>
+  <si>
+    <t>获取位置</t>
+  </si>
+  <si>
+    <t>设置位置</t>
+  </si>
+  <si>
+    <t>获取长度</t>
+  </si>
+  <si>
+    <t>判断文件存在</t>
+  </si>
+  <si>
+    <t>创建文件</t>
+  </si>
+  <si>
+    <t>创建文件夹</t>
+  </si>
+  <si>
+    <t>复制文件</t>
+  </si>
+  <si>
+    <t>移动文件</t>
+  </si>
+  <si>
+    <t>删除文件</t>
+  </si>
+  <si>
+    <t>打开文件</t>
+  </si>
+  <si>
+    <t>关闭文件</t>
+  </si>
+  <si>
+    <t>获取文件长度</t>
+  </si>
+  <si>
+    <t>获取文件位置</t>
+  </si>
+  <si>
+    <t>设置文件位置</t>
+  </si>
+  <si>
+    <t>读取字节</t>
+  </si>
+  <si>
+    <t>读取字</t>
+  </si>
+  <si>
+    <t>读取双字</t>
+  </si>
+  <si>
+    <t>读取四字</t>
+  </si>
+  <si>
+    <t>读取八字</t>
+  </si>
+  <si>
+    <t>读取十六字</t>
+  </si>
+  <si>
+    <t>读取不定长整数</t>
+  </si>
+  <si>
+    <t>读取字符数组</t>
+  </si>
+  <si>
+    <t>读取字节字符串</t>
+  </si>
+  <si>
+    <t>getfps</t>
+  </si>
+  <si>
+    <t>获取当前窗口刷新率（FPS = Frame Per Second）</t>
+  </si>
+  <si>
+    <t>GetHWnd</t>
+  </si>
+  <si>
+    <t>获取当前窗口句柄</t>
+  </si>
+  <si>
+    <t>inputbox_getline</t>
+  </si>
+  <si>
+    <t>使用对话框让用户输入一个字符串</t>
+  </si>
+  <si>
+    <t>GetBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAlpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetBBPixel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSV2RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSL2RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSI2RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSN2RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB2HSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgb2hsv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB2HSV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB2HSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB2HSN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double2long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点转整型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long2double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型转浮点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画弧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chord</t>
+  </si>
+  <si>
+    <t>Pie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画椭圆切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetBrushColor</t>
+  </si>
+  <si>
+    <t>SetPenColor</t>
+  </si>
+  <si>
+    <t>SetPenWidth</t>
+  </si>
+  <si>
+    <t>设置画刷颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置画笔颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置画笔宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存位图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORTS</t>
+  </si>
+  <si>
+    <t>sgn</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>arcsin</t>
+  </si>
+  <si>
+    <t>arccos</t>
+  </si>
+  <si>
+    <t>arctan</t>
+  </si>
+  <si>
+    <t>PauseThread</t>
+  </si>
+  <si>
+    <t>ResumeThread</t>
+  </si>
+  <si>
+    <t>StopThread</t>
+  </si>
+  <si>
+    <t>AddFPS</t>
+  </si>
+  <si>
+    <t>SetDrawProcedure</t>
+  </si>
+  <si>
+    <t>GetTimeR</t>
+  </si>
+  <si>
+    <t>SetSize</t>
+  </si>
+  <si>
+    <t>SetPos</t>
+  </si>
+  <si>
+    <t>GetWin</t>
+  </si>
+  <si>
+    <t>GetScr</t>
+  </si>
+  <si>
+    <t>GetRGBA</t>
+  </si>
+  <si>
+    <t>GetRGB</t>
+  </si>
+  <si>
+    <t>MixColor</t>
+  </si>
+  <si>
+    <t>DrawTextXY</t>
+  </si>
+  <si>
+    <t>DrawTextlnXY</t>
+  </si>
+  <si>
+    <t>DrawTextXYw</t>
+  </si>
+  <si>
+    <t>DrawTextlnXYw</t>
+  </si>
+  <si>
+    <t>GetBBPixel</t>
+  </si>
+  <si>
+    <t>MixBMP</t>
+  </si>
+  <si>
+    <t>BlurBMPBox</t>
+  </si>
+  <si>
+    <t>BlurBMPGau</t>
+  </si>
+  <si>
+    <t>CreateBB</t>
+  </si>
+  <si>
+    <t>ReleaseBB</t>
+  </si>
+  <si>
+    <t>GetBB</t>
+  </si>
+  <si>
+    <t>SetBB</t>
+  </si>
+  <si>
+    <t>MixBB</t>
+  </si>
+  <si>
+    <t>BlurBBBox</t>
+  </si>
+  <si>
+    <t>BlurBBGau</t>
+  </si>
+  <si>
+    <t>PressKey</t>
+  </si>
+  <si>
+    <t>PressMouse</t>
+  </si>
+  <si>
+    <t>IsMouseLeft</t>
+  </si>
+  <si>
+    <t>WaitMouseLeft</t>
+  </si>
+  <si>
+    <t>IsMouseMiddle</t>
+  </si>
+  <si>
+    <t>WaitMouseMiddle</t>
+  </si>
+  <si>
+    <t>IsMouseRight</t>
+  </si>
+  <si>
+    <t>WaitMouseRight</t>
+  </si>
+  <si>
+    <t>GetMouseWheel</t>
+  </si>
+  <si>
+    <t>GetMouseAbsX</t>
+  </si>
+  <si>
+    <t>GetMouseAbsY</t>
+  </si>
+  <si>
+    <t>GetMouseWinX</t>
+  </si>
+  <si>
+    <t>GetMouseWinY</t>
+  </si>
+  <si>
+    <t>GetMousePosX</t>
+  </si>
+  <si>
+    <t>GetMousePosY</t>
+  </si>
+  <si>
+    <t>ReleaseAudio</t>
+  </si>
+  <si>
+    <t>暂停线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>获取鼠标按键</t>
-  </si>
-  <si>
-    <t>等待鼠标按键</t>
-  </si>
-  <si>
-    <t>判断鼠标滚轮按键</t>
-  </si>
-  <si>
-    <t>等待鼠标滚轮按键</t>
-  </si>
-  <si>
-    <t>判断鼠标移动</t>
-  </si>
-  <si>
-    <t>获取鼠标移动</t>
-  </si>
-  <si>
-    <t>等待鼠标移动</t>
-  </si>
-  <si>
-    <t>判断拖拽文件</t>
-  </si>
-  <si>
-    <t>等待拖拽文件</t>
-  </si>
-  <si>
-    <t>获取拖拽文件</t>
-  </si>
-  <si>
-    <t>获取鼠标绝对位置</t>
-  </si>
-  <si>
-    <t>获取鼠标窗口位置</t>
-  </si>
-  <si>
-    <t>获取鼠标绘图位置</t>
-  </si>
-  <si>
-    <t>读取音频</t>
-  </si>
-  <si>
-    <t>开始播放</t>
-  </si>
-  <si>
-    <t>停止播放</t>
-  </si>
-  <si>
-    <t>暂停播放</t>
-  </si>
-  <si>
-    <t>继续播放</t>
-  </si>
-  <si>
-    <t>获取音量</t>
-  </si>
-  <si>
-    <t>设置音量</t>
-  </si>
-  <si>
-    <t>获取位置</t>
-  </si>
-  <si>
-    <t>设置位置</t>
-  </si>
-  <si>
-    <t>获取长度</t>
-  </si>
-  <si>
-    <t>判断文件存在</t>
-  </si>
-  <si>
-    <t>创建文件</t>
-  </si>
-  <si>
-    <t>创建文件夹</t>
-  </si>
-  <si>
-    <t>复制文件</t>
-  </si>
-  <si>
-    <t>移动文件</t>
-  </si>
-  <si>
-    <t>删除文件</t>
-  </si>
-  <si>
-    <t>打开文件</t>
-  </si>
-  <si>
-    <t>关闭文件</t>
-  </si>
-  <si>
-    <t>获取文件长度</t>
-  </si>
-  <si>
-    <t>获取文件位置</t>
-  </si>
-  <si>
-    <t>设置文件位置</t>
-  </si>
-  <si>
-    <t>读取字节</t>
-  </si>
-  <si>
-    <t>读取字</t>
-  </si>
-  <si>
-    <t>读取双字</t>
-  </si>
-  <si>
-    <t>读取四字</t>
-  </si>
-  <si>
-    <t>读取八字</t>
-  </si>
-  <si>
-    <t>读取十六字</t>
-  </si>
-  <si>
-    <t>读取不定长整数</t>
-  </si>
-  <si>
-    <t>读取字符数组</t>
-  </si>
-  <si>
-    <t>读取字节字符串</t>
-  </si>
-  <si>
-    <t>getfps</t>
-  </si>
-  <si>
-    <t>获取当前窗口刷新率（FPS = Frame Per Second）</t>
-  </si>
-  <si>
-    <t>GetHWnd</t>
-  </si>
-  <si>
-    <t>获取当前窗口句柄</t>
-  </si>
-  <si>
-    <t>inputbox_getline</t>
-  </si>
-  <si>
-    <t>使用对话框让用户输入一个字符串</t>
-  </si>
-  <si>
-    <t>GetBlue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetGreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetRed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetAlpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetBBPixel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画点到缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSV2RGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSL2RGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSI2RGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSN2RGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB2HSL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rgb2hsv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB2HSV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB2HSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB2HSN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮度转RGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明度转RGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强度转RGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取绿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取透明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度转RGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB转亮度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB转明度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB转强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGB转长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double2long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点转整型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long2double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整型转浮点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画弧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Triangle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画三角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chord</t>
-  </si>
-  <si>
-    <t>Pie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画饼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画椭圆切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetBrushColor</t>
-  </si>
-  <si>
-    <t>SetPenColor</t>
-  </si>
-  <si>
-    <t>SetPenWidth</t>
-  </si>
-  <si>
-    <t>设置画刷颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置画笔颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置画笔宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存位图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取鼠标滚轮按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断鼠标左键</t>
+  </si>
+  <si>
+    <t>获取鼠标左键</t>
+  </si>
+  <si>
+    <t>等待鼠标左键</t>
+  </si>
+  <si>
+    <t>判断鼠标右键</t>
+  </si>
+  <si>
+    <t>获取鼠标右键</t>
+  </si>
+  <si>
+    <t>等待鼠标右键</t>
+  </si>
+  <si>
+    <t>输出指定位置文本活动宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出指定位置文本行活动宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出指定位置文本固定宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出指定位置文本行固定宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放音频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置点到缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从缓存获取点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建位图缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放位图缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取位图缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存位图缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合位图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值模糊位图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯模糊位图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合位图缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均值模糊位图缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯模糊位图缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转到下一帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取窗口建立精确时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置窗口大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置窗口位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取窗口绘图位图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取窗口实时位图</t>
+  </si>
+  <si>
+    <t>设置绘图函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红绿蓝转色饱亮</t>
+  </si>
+  <si>
+    <t>红绿蓝转色饱明</t>
+  </si>
+  <si>
+    <t>红绿蓝转色饱强</t>
+  </si>
+  <si>
+    <t>红绿蓝转色饱长</t>
+  </si>
+  <si>
+    <t>色饱亮转红绿蓝</t>
+  </si>
+  <si>
+    <t>色饱明转红绿蓝</t>
+  </si>
+  <si>
+    <t>色饱强转红绿蓝</t>
+  </si>
+  <si>
+    <t>色饱长转红绿蓝</t>
+  </si>
+  <si>
+    <t>拼接RGBA颜色</t>
+  </si>
+  <si>
+    <t>拼接RGB颜色</t>
+  </si>
+  <si>
+    <t>i2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2si</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2hc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2ci</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2hs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs2i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as2hs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hs2as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2as</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,15 +2207,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="34" style="1"/>
+    <col min="1" max="4" width="34" style="1"/>
+    <col min="7" max="16384" width="34" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,51 +2230,57 @@
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>498</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2007,6 +2306,12 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2075,687 +2380,698 @@
         <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" t="s">
+        <v>495</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>496</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>497</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>359</v>
-      </c>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>355</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>356</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>471</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>472</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>473</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>478</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>484</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>486</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>456</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C56" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>500</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>501</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>487</v>
+        <v>87</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>489</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>248</v>
+        <v>191</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>491</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>379</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>493</v>
+        <v>85</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>494</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>250</v>
+        <v>205</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>214</v>
+        <v>235</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>378</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>460</v>
+        <v>81</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>461</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>235</v>
+      <c r="C82" t="s">
+        <v>507</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,1097 +3079,1449 @@
         <v>230</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>233</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>499</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>500</v>
+      <c r="A93" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="C96" s="1" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>67</v>
+      <c r="C101" t="s">
+        <v>502</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>361</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="C102"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>363</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="C104" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="C105" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C108" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C109" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C110" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C112" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="C113" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="C115" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>279</v>
+        <v>256</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="C119" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>91</v>
+        <v>272</v>
+      </c>
+      <c r="C121" t="s">
+        <v>503</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
+        <v>504</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>505</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>506</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>511</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>283</v>
+      <c r="D128" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="1" t="s">
-        <v>95</v>
+      <c r="C129" t="s">
+        <v>512</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>385</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C130" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="1" t="s">
-        <v>97</v>
+      <c r="C131" t="s">
+        <v>513</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>387</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>388</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="1" t="s">
-        <v>99</v>
+      <c r="C133" t="s">
+        <v>514</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>389</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C134" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>391</v>
+      <c r="A135" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>392</v>
+      <c r="A136" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>393</v>
+      <c r="A137" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="1" t="s">
-        <v>104</v>
+      <c r="C138" t="s">
+        <v>508</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>394</v>
+        <v>556</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="1" t="s">
-        <v>105</v>
+      <c r="C139" t="s">
+        <v>515</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>395</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" t="s">
+        <v>509</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>106</v>
+      <c r="C141" t="s">
+        <v>516</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>396</v>
+        <v>560</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>107</v>
+      <c r="C142" t="s">
+        <v>517</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>397</v>
+        <v>558</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>108</v>
+      <c r="C143" t="s">
+        <v>510</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>399</v>
+        <v>561</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>110</v>
+      <c r="C145" t="s">
+        <v>518</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C146" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C147" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>113</v>
+        <v>308</v>
+      </c>
+      <c r="C148" t="s">
+        <v>519</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C153" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C154" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C155" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C157" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C158" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C159" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C160" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C161" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C162" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C163" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C164" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>419</v>
+      <c r="A164" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="C166" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>454</v>
+        <v>289</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>455</v>
+        <v>290</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C168" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>330</v>
+      <c r="A168" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>319</v>
+      <c r="C170" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>321</v>
+      <c r="C171" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>323</v>
+        <v>292</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C174" t="s">
+        <v>520</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>521</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>522</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>523</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>524</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>525</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>526</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C183" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C186" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" t="s">
+        <v>527</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>528</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>529</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>530</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>531</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>532</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>490</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>491</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>492</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C201" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B173" s="1" t="s">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>493</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C175" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C176" s="1" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C177" s="1" t="s">
+      <c r="D210" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C211" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C178" s="1" t="s">
+      <c r="D211" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C212" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C179" s="1" t="s">
+      <c r="D212" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C213" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C181" s="1" t="s">
+      <c r="D213" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>533</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C217" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C218" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C219" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C220" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C221" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C222" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C223" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D223" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C224" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C225" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C227" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C182" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D182" s="1" t="s">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C228" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C183" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D183" s="1" t="s">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C229" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C184" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D184" s="1" t="s">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C230" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C185" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D185" s="1" t="s">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C231" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C186" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D186" s="1" t="s">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C232" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C187" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D187" s="1" t="s">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C233" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C188" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D188" s="1" t="s">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C234" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C189" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D189" s="1" t="s">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C235" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C190" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D190" s="1" t="s">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C236" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C192" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D192" s="1" t="s">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C237" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C193" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D193" s="1" t="s">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C238" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C194" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D194" s="1" t="s">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C239" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D239" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C195" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D195" s="1" t="s">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C240" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C196" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D196" s="1" t="s">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C241" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C197" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D197" s="1" t="s">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C242" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C198" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D198" s="1" t="s">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C243" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C199" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D199" s="1" t="s">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C244" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C200" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D200" s="1" t="s">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C245" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C201" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D201" s="1" t="s">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C246" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C202" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C203" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C204" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C205" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C206" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C207" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C208" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C209" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C210" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C211" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>449</v>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -3861,4 +4529,767 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B315"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A69" sqref="A2:A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B315">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ege库与display单元库对比.xlsx
+++ b/ege库与display单元库对比.xlsx
@@ -2209,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>558</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>561</v>
